--- a/NewFile.xlsx
+++ b/NewFile.xlsx
@@ -169,7 +169,7 @@
         <v>189.0</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>-9.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -192,7 +192,7 @@
         <v>171.0</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>-11.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">

--- a/NewFile.xlsx
+++ b/NewFile.xlsx
@@ -38,10 +38,10 @@
     <t>Ayyan,Thambi</t>
   </si>
   <si>
-    <t>01-JUL-22</t>
-  </si>
-  <si>
-    <t>29-JUL-22</t>
+    <t>01-Jul-22</t>
+  </si>
+  <si>
+    <t>29-Jul-22</t>
   </si>
   <si>
     <t>Rani ,Thankkamma</t>
